--- a/docentes/Contreras Díaz Irma Ivette - Estadisticos 20202.xlsx
+++ b/docentes/Contreras Díaz Irma Ivette - Estadisticos 20202.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="113">
   <si>
     <t>Mat</t>
   </si>
@@ -79,25 +79,70 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>CARRERA</t>
+  </si>
+  <si>
     <t>CANUTO</t>
   </si>
   <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>GUILLEN</t>
+  </si>
+  <si>
+    <t>MIXCOHA</t>
+  </si>
+  <si>
+    <t>PAZ</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>ESTEVEZ</t>
+  </si>
+  <si>
+    <t>DE LA LUZ</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>BENITEZ</t>
+  </si>
+  <si>
+    <t>CLEMENTE</t>
+  </si>
+  <si>
+    <t>SANTIAGO</t>
+  </si>
+  <si>
     <t>CHAVEZ</t>
   </si>
   <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>GUILLEN</t>
-  </si>
-  <si>
-    <t>MIXCOHA</t>
-  </si>
-  <si>
-    <t>PAZ</t>
-  </si>
-  <si>
-    <t>REYES</t>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>APALE</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>MOLINA</t>
+  </si>
+  <si>
+    <t>OCAÑA</t>
+  </si>
+  <si>
+    <t>BAEZ</t>
   </si>
   <si>
     <t>ROSETE</t>
@@ -106,166 +151,211 @@
     <t>SARMIENTO</t>
   </si>
   <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>ESTEVEZ</t>
-  </si>
-  <si>
-    <t>SANTIAGO</t>
-  </si>
-  <si>
-    <t>APALE</t>
+    <t>VELAZQUEZ</t>
+  </si>
+  <si>
+    <t>OJEDA</t>
+  </si>
+  <si>
+    <t>DE LUNA</t>
+  </si>
+  <si>
+    <t>TINOCO</t>
+  </si>
+  <si>
+    <t>TORRES</t>
   </si>
   <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>MOLINA</t>
-  </si>
-  <si>
-    <t>OCAÑA</t>
-  </si>
-  <si>
-    <t>VELAZQUEZ</t>
-  </si>
-  <si>
-    <t>OJEDA</t>
-  </si>
-  <si>
-    <t>DE LUNA</t>
-  </si>
-  <si>
-    <t>TINOCO</t>
+    <t>CASTAÑEDA</t>
   </si>
   <si>
     <t>MEDINA</t>
   </si>
   <si>
+    <t>LEON</t>
+  </si>
+  <si>
+    <t>OFICIAL</t>
+  </si>
+  <si>
+    <t>HUERTA</t>
+  </si>
+  <si>
+    <t>EVARISTO</t>
+  </si>
+  <si>
+    <t>JOAQUIN</t>
+  </si>
+  <si>
+    <t>MORENO</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>ZACARIAS</t>
+  </si>
+  <si>
+    <t>GARNICA</t>
+  </si>
+  <si>
+    <t>ANDRADE</t>
+  </si>
+  <si>
+    <t>TEPOLE</t>
+  </si>
+  <si>
+    <t>CHIPAHUA</t>
+  </si>
+  <si>
+    <t>RAMON</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
     <t>RAMOS</t>
   </si>
   <si>
-    <t>LEON</t>
-  </si>
-  <si>
     <t>MENDEZ</t>
   </si>
   <si>
-    <t>HUERTA</t>
-  </si>
-  <si>
-    <t>EVARISTO</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>JOAQUIN</t>
-  </si>
-  <si>
     <t>SALAS</t>
   </si>
   <si>
     <t>URBINA</t>
   </si>
   <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>MORENO</t>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>YAEL</t>
+  </si>
+  <si>
+    <t>CORDOVA</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
   </si>
   <si>
     <t>CARRILLO</t>
   </si>
   <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>YAEL</t>
-  </si>
-  <si>
-    <t>CORDOVA</t>
+    <t>PAUL ARAVIER</t>
   </si>
   <si>
     <t>ISRAEL</t>
   </si>
   <si>
+    <t>LUIS ENRIQUE</t>
+  </si>
+  <si>
+    <t>SAID ANDRES</t>
+  </si>
+  <si>
+    <t>ANGEL</t>
+  </si>
+  <si>
+    <t>ALEJANDRO</t>
+  </si>
+  <si>
+    <t>DAVID</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>OSVALDO</t>
+  </si>
+  <si>
+    <t>ERICK DE JESUS</t>
+  </si>
+  <si>
+    <t>SHADAI COSTANTIN</t>
+  </si>
+  <si>
+    <t>SUSANA</t>
+  </si>
+  <si>
+    <t>ANA KAREN</t>
+  </si>
+  <si>
+    <t>LEONARDO GAEL</t>
+  </si>
+  <si>
+    <t>VALERIA</t>
+  </si>
+  <si>
+    <t>AXEL YAEL</t>
+  </si>
+  <si>
+    <t>XOCHITL JOSELINE</t>
+  </si>
+  <si>
+    <t>GERMAN ERNESTO</t>
+  </si>
+  <si>
+    <t>MEILYN ADABEL</t>
+  </si>
+  <si>
+    <t>JOSE MIGUEL</t>
+  </si>
+  <si>
+    <t>JESUS ANTONIO</t>
+  </si>
+  <si>
+    <t>IRVING</t>
+  </si>
+  <si>
+    <t>OZIEL</t>
+  </si>
+  <si>
+    <t>MARCO ANTONIO</t>
+  </si>
+  <si>
     <t>NORKYS AIRY</t>
   </si>
   <si>
-    <t>LUIS ENRIQUE</t>
-  </si>
-  <si>
     <t>CRISTIAN JAHIR</t>
   </si>
   <si>
-    <t>ANGEL</t>
-  </si>
-  <si>
-    <t>ALEJANDRO</t>
-  </si>
-  <si>
-    <t>DAVID</t>
-  </si>
-  <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
     <t>VICTOR GAEL</t>
   </si>
   <si>
     <t>ALDIR ADALBERTO</t>
   </si>
   <si>
-    <t>OSVALDO</t>
-  </si>
-  <si>
-    <t>ERICK DE JESUS</t>
-  </si>
-  <si>
-    <t>AXEL YAEL</t>
-  </si>
-  <si>
-    <t>JOSE MIGUEL</t>
+    <t>JONATHAN</t>
+  </si>
+  <si>
+    <t>AYLIN MELISSA</t>
+  </si>
+  <si>
+    <t>ZGAIP</t>
+  </si>
+  <si>
+    <t>EUDY</t>
+  </si>
+  <si>
+    <t>ERNESTO</t>
+  </si>
+  <si>
+    <t>CONSTANZA XIMENA</t>
+  </si>
+  <si>
+    <t>ARIZBETH</t>
   </si>
   <si>
     <t>ANGEL DAVID</t>
-  </si>
-  <si>
-    <t>JESUS ANTONIO</t>
-  </si>
-  <si>
-    <t>IRVING</t>
-  </si>
-  <si>
-    <t>OZIEL</t>
-  </si>
-  <si>
-    <t>JONATHAN</t>
-  </si>
-  <si>
-    <t>AYLIN MELISSA</t>
-  </si>
-  <si>
-    <t>ZGAIP</t>
-  </si>
-  <si>
-    <t>EUDY</t>
-  </si>
-  <si>
-    <t>ERNESTO</t>
-  </si>
-  <si>
-    <t>ARIZBETH</t>
   </si>
 </sst>
 </file>
@@ -1016,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G2">
-        <v>38.89</v>
+        <v>75</v>
       </c>
       <c r="H2">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1042,16 +1132,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G3">
-        <v>67.73999999999999</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="H3">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1139,7 +1229,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1174,16 +1264,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920073</v>
+        <v>20330051920072</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1197,16 +1287,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920074</v>
+        <v>20330051920073</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1226,10 +1316,10 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1243,16 +1333,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920081</v>
+        <v>20330051920082</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1272,10 +1362,10 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1295,10 +1385,10 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1318,10 +1408,10 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -1341,10 +1431,10 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -1358,16 +1448,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>20330051920063</v>
+        <v>20330051920070</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -1381,22 +1471,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>20330051920065</v>
+        <v>20330051920196</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1404,22 +1494,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>20330051920070</v>
+        <v>20330051920203</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1427,16 +1517,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>20330051920196</v>
+        <v>20330051920213</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -1450,16 +1540,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>20330051920279</v>
+        <v>20330051920261</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -1473,22 +1563,22 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>20330051920317</v>
+        <v>20330051920264</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1496,22 +1586,22 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>20330051920325</v>
+        <v>20330051920267</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -1519,22 +1609,22 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>20330051920326</v>
+        <v>20330051920279</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1542,22 +1632,22 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>20330051920328</v>
+        <v>20330051920117</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -1565,22 +1655,22 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>20330051920330</v>
+        <v>20330051920134</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -1588,139 +1678,415 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>20330051920068</v>
+        <v>20330051920148</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>20330051920069</v>
+        <v>20330051920317</v>
       </c>
       <c r="B21" t="s">
         <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>20330051920386</v>
+        <v>20330051920326</v>
       </c>
       <c r="B22" t="s">
         <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>19220030050208</v>
+        <v>20330051920328</v>
       </c>
       <c r="B23" t="s">
         <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>20330051920282</v>
+        <v>20330051920330</v>
       </c>
       <c r="B24" t="s">
         <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
+        <v>20330051920071</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>20330051920074</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>20330051920081</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>20330051920063</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>20330051920065</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>20330051920068</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>20330051920069</v>
+      </c>
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>20330051920386</v>
+      </c>
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>19220030050208</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>20330051920282</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>20330051920151</v>
+      </c>
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
         <v>20330051920324</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B36" t="s">
         <v>22</v>
       </c>
-      <c r="C25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="C36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
         <v>13</v>
       </c>
-      <c r="G25">
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>20330051920325</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" t="s">
+        <v>112</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37">
         <v>1</v>
       </c>
     </row>
